--- a/Data_preparation/datasets/final_data/DXC_TECHNOLOGY_CO.xlsx
+++ b/Data_preparation/datasets/final_data/DXC_TECHNOLOGY_CO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,102 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -748,22 +652,22 @@
         <v>42308</v>
       </c>
       <c r="D2">
-        <v>24.30973052978516</v>
+        <v>22.56767573870786</v>
       </c>
       <c r="E2">
-        <v>23.86653137207031</v>
+        <v>18.47954368591309</v>
       </c>
       <c r="F2">
-        <v>25.31838989257812</v>
+        <v>24.10222265071334</v>
       </c>
       <c r="G2">
-        <v>22.66938400268555</v>
+        <v>17.56529917706477</v>
       </c>
       <c r="H2">
-        <v>60308678</v>
+        <v>178998669</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>2466000000</v>
@@ -792,22 +696,22 @@
         <v>42400</v>
       </c>
       <c r="D3">
-        <v>21.77208002677406</v>
+        <v>25.75853278637041</v>
       </c>
       <c r="E3">
-        <v>21.82173156738281</v>
+        <v>23.263427734375</v>
       </c>
       <c r="F3">
-        <v>22.31824352975136</v>
+        <v>25.96040201767212</v>
       </c>
       <c r="G3">
-        <v>20.89641115827674</v>
+        <v>19.5974797165072</v>
       </c>
       <c r="H3">
-        <v>14840390000</v>
+        <v>178998669</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>4472000000</v>
@@ -866,22 +770,22 @@
         <v>42552</v>
       </c>
       <c r="D4">
-        <v>13.19996774679334</v>
+        <v>40.30586368069592</v>
       </c>
       <c r="E4">
-        <v>13.69067287445068</v>
+        <v>38.88320922851562</v>
       </c>
       <c r="F4">
-        <v>14.06851604737382</v>
+        <v>40.79362805350653</v>
       </c>
       <c r="G4">
-        <v>12.75833331909089</v>
+        <v>38.37918006840941</v>
       </c>
       <c r="H4">
-        <v>171080665</v>
+        <v>178998669</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>1930000000</v>
@@ -943,22 +847,22 @@
         <v>42643</v>
       </c>
       <c r="D5">
-        <v>10.08891169552178</v>
+        <v>42.344859100305</v>
       </c>
       <c r="E5">
-        <v>10.03531837463379</v>
+        <v>44.39972305297852</v>
       </c>
       <c r="F5">
-        <v>10.24075858308116</v>
+        <v>46.4301209149399</v>
       </c>
       <c r="G5">
-        <v>9.423462821204105</v>
+        <v>41.10541643784433</v>
       </c>
       <c r="H5">
-        <v>1319450062</v>
+        <v>178998669</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>1871000000</v>
@@ -1020,22 +924,22 @@
         <v>42734</v>
       </c>
       <c r="D6">
-        <v>45.97999954223633</v>
+        <v>48.62341580256726</v>
       </c>
       <c r="E6">
-        <v>53.06000137329102</v>
+        <v>50.8384017944336</v>
       </c>
       <c r="F6">
-        <v>53.20000076293945</v>
+        <v>51.32063021952053</v>
       </c>
       <c r="G6">
-        <v>45.61000061035156</v>
+        <v>46.63728764391581</v>
       </c>
       <c r="H6">
-        <v>50476952</v>
+        <v>178998669</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>1917000000</v>
@@ -1097,22 +1001,22 @@
         <v>42825</v>
       </c>
       <c r="D7">
-        <v>5.311937668057123</v>
+        <v>56.77500184934564</v>
       </c>
       <c r="E7">
-        <v>5.160849571228027</v>
+        <v>61.70555114746094</v>
       </c>
       <c r="F7">
-        <v>5.327841658292762</v>
+        <v>63.87597595435853</v>
       </c>
       <c r="G7">
-        <v>4.930241523220734</v>
+        <v>55.49731980194213</v>
       </c>
       <c r="H7">
-        <v>3071530678</v>
+        <v>178998669</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>1700000000</v>
@@ -1189,22 +1093,22 @@
         <v>42916</v>
       </c>
       <c r="D8">
-        <v>70.19999694824219</v>
+        <v>63.01753633352818</v>
       </c>
       <c r="E8">
-        <v>61.70000076293945</v>
+        <v>64.34750366210938</v>
       </c>
       <c r="F8">
-        <v>77.92500305175781</v>
+        <v>66.27678244066387</v>
       </c>
       <c r="G8">
-        <v>61</v>
+        <v>62.09805292711641</v>
       </c>
       <c r="H8">
-        <v>55686229</v>
+        <v>178998669</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>21841379974</v>
@@ -1302,22 +1206,22 @@
         <v>43008</v>
       </c>
       <c r="D9">
-        <v>34.39338093652559</v>
+        <v>70.65438563459843</v>
       </c>
       <c r="E9">
-        <v>33.61638259887695</v>
+        <v>75.29447174072266</v>
       </c>
       <c r="F9">
-        <v>35.08107037354011</v>
+        <v>76.84116710943074</v>
       </c>
       <c r="G9">
-        <v>32.32138309818511</v>
+        <v>69.80699085818451</v>
       </c>
       <c r="H9">
-        <v>457000000</v>
+        <v>178998669</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>24449135978</v>
@@ -1427,22 +1331,22 @@
         <v>43100</v>
       </c>
       <c r="D10">
-        <v>8.751999855041504</v>
+        <v>78.22628234508909</v>
       </c>
       <c r="E10">
-        <v>9.208000183105469</v>
+        <v>82.05928039550781</v>
       </c>
       <c r="F10">
-        <v>9.28600025177002</v>
+        <v>84.86190872334022</v>
       </c>
       <c r="G10">
-        <v>8.696000099182129</v>
+        <v>77.93777242516559</v>
       </c>
       <c r="H10">
-        <v>766266033</v>
+        <v>178998669</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>27072003900</v>
@@ -1555,22 +1459,22 @@
         <v>43190</v>
       </c>
       <c r="D11">
-        <v>35.97240561616163</v>
+        <v>83.101684696696</v>
       </c>
       <c r="E11">
-        <v>31.91368293762207</v>
+        <v>85.09996032714844</v>
       </c>
       <c r="F11">
-        <v>36.75260893317965</v>
+        <v>86.69362137342395</v>
       </c>
       <c r="G11">
-        <v>31.53188151649943</v>
+        <v>81.20250355402943</v>
       </c>
       <c r="H11">
-        <v>5186523104</v>
+        <v>178998669</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>28720201068</v>
@@ -1671,22 +1575,22 @@
         <v>43281</v>
       </c>
       <c r="D12">
-        <v>22.36372947692871</v>
+        <v>76.22051588744115</v>
       </c>
       <c r="E12">
-        <v>22.87315368652344</v>
+        <v>81.07099914550781</v>
       </c>
       <c r="F12">
-        <v>25.01273536682129</v>
+        <v>84.69690389804451</v>
       </c>
       <c r="G12">
-        <v>22.00713157653809</v>
+        <v>76.22051588744115</v>
       </c>
       <c r="H12">
-        <v>60308678</v>
+        <v>178998669</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>22957111334</v>
@@ -1799,22 +1703,22 @@
         <v>43373</v>
       </c>
       <c r="D13">
-        <v>40.01662959399956</v>
+        <v>90.21391227710632</v>
       </c>
       <c r="E13">
-        <v>40.09360122680664</v>
+        <v>69.82231140136719</v>
       </c>
       <c r="F13">
-        <v>42.52247987457982</v>
+        <v>90.74120162745702</v>
       </c>
       <c r="G13">
-        <v>36.22792094161961</v>
+        <v>65.75740715251168</v>
       </c>
       <c r="H13">
-        <v>4757218036</v>
+        <v>178998669</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>26294151470</v>
@@ -1927,22 +1831,22 @@
         <v>43465</v>
       </c>
       <c r="D14">
-        <v>42.82212632249508</v>
+        <v>50.27139579897369</v>
       </c>
       <c r="E14">
-        <v>46.75239944458008</v>
+        <v>61.6565055847168</v>
       </c>
       <c r="F14">
-        <v>46.95784665825049</v>
+        <v>61.94497515181015</v>
       </c>
       <c r="G14">
-        <v>41.83955640128374</v>
+        <v>50.11754316230884</v>
       </c>
       <c r="H14">
-        <v>450687724</v>
+        <v>178998669</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>14893641229</v>
@@ -2055,22 +1959,22 @@
         <v>43555</v>
       </c>
       <c r="D15">
-        <v>83.62000274658203</v>
+        <v>62.24394650558868</v>
       </c>
       <c r="E15">
-        <v>104.0299987792969</v>
+        <v>63.40125274658203</v>
       </c>
       <c r="F15">
-        <v>104.9800033569336</v>
+        <v>64.30781396207679</v>
       </c>
       <c r="G15">
-        <v>82.03099822998047</v>
+        <v>61.23130170522609</v>
       </c>
       <c r="H15">
-        <v>168459019</v>
+        <v>178998669</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>17252520036</v>
@@ -2183,22 +2087,22 @@
         <v>43646</v>
       </c>
       <c r="D16">
-        <v>14.72999954223633</v>
+        <v>54.26171959650711</v>
       </c>
       <c r="E16">
-        <v>16.79999923706055</v>
+        <v>54.02921295166016</v>
       </c>
       <c r="F16">
-        <v>18.36000061035156</v>
+        <v>55.44364007729632</v>
       </c>
       <c r="G16">
-        <v>13.96000003814697</v>
+        <v>52.68260057207323</v>
       </c>
       <c r="H16">
-        <v>1435682333</v>
+        <v>178998669</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>14813138393</v>
@@ -2311,22 +2215,22 @@
         <v>43738</v>
       </c>
       <c r="D17">
-        <v>42.51583583355016</v>
+        <v>28.93650111172137</v>
       </c>
       <c r="E17">
-        <v>42.25590896606445</v>
+        <v>26.97685241699219</v>
       </c>
       <c r="F17">
-        <v>43.8557984628152</v>
+        <v>28.99499756034309</v>
       </c>
       <c r="G17">
-        <v>39.92553545962458</v>
+        <v>25.36818613313049</v>
       </c>
       <c r="H17">
-        <v>539679667</v>
+        <v>178998669</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>7727893072</v>
@@ -2427,22 +2331,22 @@
         <v>43830</v>
       </c>
       <c r="D18">
-        <v>74.30999755859375</v>
+        <v>37.29325533817211</v>
       </c>
       <c r="E18">
-        <v>78.51000213623047</v>
+        <v>31.26239776611328</v>
       </c>
       <c r="F18">
-        <v>80.26000213623047</v>
+        <v>37.62666877263113</v>
       </c>
       <c r="G18">
-        <v>70.55000305175781</v>
+        <v>30.77208411195568</v>
       </c>
       <c r="H18">
-        <v>201104117</v>
+        <v>178998669</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>9622947040</v>
@@ -2555,22 +2459,22 @@
         <v>43921</v>
       </c>
       <c r="D19">
-        <v>26.5</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="E19">
-        <v>30.27000045776367</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>19.32999992370605</v>
       </c>
       <c r="G19">
-        <v>21.67000007629395</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="H19">
-        <v>2085418676</v>
+        <v>178998669</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3311054143</v>
@@ -2671,22 +2575,22 @@
         <v>44012</v>
       </c>
       <c r="D20">
-        <v>256.4700012207031</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="E20">
-        <v>280.75</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="F20">
-        <v>287.8299865722656</v>
+        <v>17.98999977111816</v>
       </c>
       <c r="G20">
-        <v>250.9499969482422</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="H20">
-        <v>50845151</v>
+        <v>178998669</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>4186903924</v>
@@ -2787,22 +2691,22 @@
         <v>44104</v>
       </c>
       <c r="D21">
-        <v>142.1999969482422</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="E21">
-        <v>135.75</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="F21">
-        <v>158.7359924316406</v>
+        <v>21.02000045776367</v>
       </c>
       <c r="G21">
-        <v>133.8099975585938</v>
+        <v>16.8799991607666</v>
       </c>
       <c r="H21">
-        <v>158300823</v>
+        <v>178998669</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>4537373432</v>
@@ -2903,22 +2807,22 @@
         <v>44196</v>
       </c>
       <c r="D22">
-        <v>29.91399955749512</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="E22">
-        <v>28.95000076293945</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="F22">
-        <v>31.0620002746582</v>
+        <v>30.13999938964844</v>
       </c>
       <c r="G22">
-        <v>27.46199989318848</v>
+        <v>25.55999946594238</v>
       </c>
       <c r="H22">
-        <v>766266033</v>
+        <v>178998669</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>6551113068</v>
@@ -3031,22 +2935,22 @@
         <v>44286</v>
       </c>
       <c r="D23">
-        <v>529.9299926757812</v>
+        <v>31.38999938964844</v>
       </c>
       <c r="E23">
-        <v>513.469970703125</v>
+        <v>32.90999984741211</v>
       </c>
       <c r="F23">
-        <v>563.5599975585938</v>
+        <v>33.63000106811523</v>
       </c>
       <c r="G23">
-        <v>499</v>
+        <v>30.55999946594238</v>
       </c>
       <c r="H23">
-        <v>424926346</v>
+        <v>178998669</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>7958608221</v>
@@ -3147,22 +3051,22 @@
         <v>44377</v>
       </c>
       <c r="D24">
-        <v>46.47724219552952</v>
+        <v>39.22000122070312</v>
       </c>
       <c r="E24">
-        <v>48.50979995727539</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="F24">
-        <v>48.75511095753174</v>
+        <v>40.97000122070312</v>
       </c>
       <c r="G24">
-        <v>45.85521015250949</v>
+        <v>36.75</v>
       </c>
       <c r="H24">
-        <v>3953196953</v>
+        <v>178998669</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>9922183256</v>
@@ -3263,22 +3167,22 @@
         <v>44469</v>
       </c>
       <c r="D25">
-        <v>138.916410444292</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>146.6503143310547</v>
+        <v>32.56999969482422</v>
       </c>
       <c r="F25">
-        <v>149.9494520691154</v>
+        <v>35.59000015258789</v>
       </c>
       <c r="G25">
-        <v>135.3627448332334</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="H25">
-        <v>14840390000</v>
+        <v>178998669</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>8466501574</v>
@@ -3379,22 +3283,22 @@
         <v>44561</v>
       </c>
       <c r="D26">
-        <v>17.05999946594238</v>
+        <v>32.40000152587891</v>
       </c>
       <c r="E26">
-        <v>15.57999992370606</v>
+        <v>30.07999992370605</v>
       </c>
       <c r="F26">
-        <v>19.65999984741211</v>
+        <v>34.63999938964844</v>
       </c>
       <c r="G26">
-        <v>13.14000034332275</v>
+        <v>28.56999969482422</v>
       </c>
       <c r="H26">
-        <v>250599325</v>
+        <v>178998669</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>8119567487</v>
@@ -3507,22 +3411,22 @@
         <v>44651</v>
       </c>
       <c r="D27">
-        <v>151.2200012207031</v>
+        <v>32.61999893188477</v>
       </c>
       <c r="E27">
-        <v>119.3099975585938</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="F27">
-        <v>161.6100006103516</v>
+        <v>32.81000137329102</v>
       </c>
       <c r="G27">
-        <v>118.879997253418</v>
+        <v>28.54000091552734</v>
       </c>
       <c r="H27">
-        <v>168459019</v>
+        <v>178998669</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>7977312931</v>
@@ -3623,22 +3527,22 @@
         <v>44742</v>
       </c>
       <c r="D28">
-        <v>3.200000047683716</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="E28">
-        <v>3.930000066757202</v>
+        <v>31.60000038146973</v>
       </c>
       <c r="F28">
-        <v>4.539999961853027</v>
+        <v>31.98999977111816</v>
       </c>
       <c r="G28">
-        <v>3.109999895095825</v>
+        <v>27.31999969482422</v>
       </c>
       <c r="H28">
-        <v>448228270</v>
+        <v>178998669</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>6992021735</v>
@@ -3751,22 +3655,22 @@
         <v>44834</v>
       </c>
       <c r="D29">
-        <v>254.5</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="E29">
-        <v>227.5399932861328</v>
+        <v>28.75</v>
       </c>
       <c r="F29">
-        <v>257.5</v>
+        <v>29.97999954223633</v>
       </c>
       <c r="G29">
-        <v>198.5899963378907</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="H29">
-        <v>3325150886</v>
+        <v>178998669</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>5627384798</v>
@@ -3995,22 +3899,22 @@
         <v>45016</v>
       </c>
       <c r="D31">
-        <v>261.1884929516806</v>
+        <v>25.6299991607666</v>
       </c>
       <c r="E31">
-        <v>225.4617156982422</v>
+        <v>23.85000038146973</v>
       </c>
       <c r="F31">
-        <v>262.5264343168398</v>
+        <v>25.86000061035156</v>
       </c>
       <c r="G31">
-        <v>223.9783523558658</v>
+        <v>22.73999977111816</v>
       </c>
       <c r="H31">
-        <v>60498713</v>
+        <v>178998669</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>5819564240</v>
@@ -4111,22 +4015,22 @@
         <v>45107</v>
       </c>
       <c r="D32">
-        <v>18.42000007629395</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="E32">
-        <v>19.04000091552734</v>
+        <v>27.64999961853028</v>
       </c>
       <c r="F32">
-        <v>19.38999938964844</v>
+        <v>28.88999938964844</v>
       </c>
       <c r="G32">
-        <v>17.57999992370605</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="H32">
-        <v>260676335</v>
+        <v>178998669</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>5645241708</v>
@@ -4239,22 +4143,22 @@
         <v>45199</v>
       </c>
       <c r="D33">
-        <v>62.6169871617784</v>
+        <v>20.77000045776367</v>
       </c>
       <c r="E33">
-        <v>64.67326354980469</v>
+        <v>20.17000007629395</v>
       </c>
       <c r="F33">
-        <v>66.63478202323152</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="G33">
-        <v>60.75970456328059</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="H33">
-        <v>212968277</v>
+        <v>178998669</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>4273781856</v>
@@ -4367,22 +4271,22 @@
         <v>45291</v>
       </c>
       <c r="D34">
-        <v>1152.400024414062</v>
+        <v>22.70000076293945</v>
       </c>
       <c r="E34">
-        <v>1198.829956054688</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="F34">
-        <v>1307.140014648438</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="G34">
-        <v>1113.18994140625</v>
+        <v>21.76000022888184</v>
       </c>
       <c r="H34">
-        <v>24003656</v>
+        <v>178998669</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>4428628217</v>
@@ -4495,22 +4399,22 @@
         <v>45382</v>
       </c>
       <c r="D35">
-        <v>104.6600036621094</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="E35">
-        <v>92.98000335693359</v>
+        <v>19.48999977111816</v>
       </c>
       <c r="F35">
-        <v>105.0100021362305</v>
+        <v>22.14999961853028</v>
       </c>
       <c r="G35">
-        <v>90.66999816894533</v>
+        <v>19.47999954223633</v>
       </c>
       <c r="H35">
-        <v>168459019</v>
+        <v>178998669</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>3878686402</v>
@@ -4611,22 +4515,22 @@
         <v>45473</v>
       </c>
       <c r="D36">
-        <v>53.97000122070312</v>
+        <v>19.09000015258789</v>
       </c>
       <c r="E36">
-        <v>52.63999938964844</v>
+        <v>20.34000015258789</v>
       </c>
       <c r="F36">
-        <v>65.87999725341797</v>
+        <v>20.75</v>
       </c>
       <c r="G36">
-        <v>50.29000091552734</v>
+        <v>17.94000053405762</v>
       </c>
       <c r="H36">
-        <v>42689006</v>
+        <v>178998669</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>3415448712</v>
@@ -4739,22 +4643,22 @@
         <v>45565</v>
       </c>
       <c r="D37">
-        <v>36.50313191135645</v>
+        <v>20.64999961853028</v>
       </c>
       <c r="E37">
-        <v>39.63111877441406</v>
+        <v>19.86000061035156</v>
       </c>
       <c r="F37">
-        <v>41.15769383693995</v>
+        <v>21.35000038146973</v>
       </c>
       <c r="G37">
-        <v>34.26814654717644</v>
+        <v>19.65999984741211</v>
       </c>
       <c r="H37">
-        <v>171080665</v>
+        <v>178998669</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>3751874522</v>
@@ -4867,22 +4771,22 @@
         <v>45657</v>
       </c>
       <c r="D38">
-        <v>12.96000003814697</v>
+        <v>20.21999931335449</v>
       </c>
       <c r="E38">
-        <v>14.22000026702881</v>
+        <v>21.71999931335449</v>
       </c>
       <c r="F38">
-        <v>15.34500026702881</v>
+        <v>21.94000053405762</v>
       </c>
       <c r="G38">
-        <v>12.61999988555908</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="H38">
-        <v>453568899</v>
+        <v>178998669</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3616869250</v>
@@ -4995,22 +4899,22 @@
         <v>45747</v>
       </c>
       <c r="D39">
-        <v>187.8600006103516</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="E39">
-        <v>184.4199981689453</v>
+        <v>15.52000045776367</v>
       </c>
       <c r="F39">
-        <v>198.3399963378907</v>
+        <v>17.68000030517578</v>
       </c>
       <c r="G39">
-        <v>161.3800048828125</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="H39">
-        <v>10664912097</v>
+        <v>178998669</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>3086877965</v>
@@ -5111,22 +5015,22 @@
         <v>45838</v>
       </c>
       <c r="D40">
-        <v>105.0804770925983</v>
+        <v>15.14000034332275</v>
       </c>
       <c r="E40">
-        <v>103.1780242919922</v>
+        <v>13.60999965667725</v>
       </c>
       <c r="F40">
-        <v>109.3114367486601</v>
+        <v>16.45000076293945</v>
       </c>
       <c r="G40">
-        <v>101.4440230697358</v>
+        <v>13.47999954223633</v>
       </c>
       <c r="H40">
-        <v>199618386</v>
+        <v>178998669</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2771561788</v>
